--- a/m50,m40,m60 Pnp/Rev 2.3/BOM-speeduino v0.4.3 compatible PCB for m50tu rev2.3.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.3/BOM-speeduino v0.4.3 compatible PCB for m50tu rev2.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C047770-8ADD-4EA2-AE22-C618E6AF6C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53976472-07EC-42AE-9005-0419B7A1CD5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="390" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="735" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -1017,9 +1017,6 @@
     <t>Q1,Q2,Q3,Q4,Q6,Q10</t>
   </si>
   <si>
-    <t>IC1,IC2,IC3</t>
-  </si>
-  <si>
     <t>R11,R14,R17,R20,R35,R36,R37,R38,R43,R48,R49,R52,R55,R56,R70,R75</t>
   </si>
   <si>
@@ -1133,9 +1130,6 @@
   </si>
   <si>
     <t>R1,R3,R5,R26,R28,R33,R34,R44,R61,R65,R69,R76</t>
-  </si>
-  <si>
-    <t>C1,C3,C5,C7,C9,C13,C15,C29,C22,C21</t>
   </si>
   <si>
     <r>
@@ -1220,6 +1214,12 @@
       </rPr>
       <t>D20</t>
     </r>
+  </si>
+  <si>
+    <t>IC1,IC2,IC5</t>
+  </si>
+  <si>
+    <t>C1,C3,C5,C7,C9,C13,C15,C21,C22,C29</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2001,8 @@
   </sheetPr>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2228,7 +2228,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -2476,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2815,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -2875,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -3119,10 +3119,10 @@
         <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3130,13 +3130,13 @@
         <v>186</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -3667,7 +3667,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
@@ -3727,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C33" s="12">
         <v>680</v>
@@ -3789,7 +3789,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C34" s="3">
         <v>470</v>
@@ -3849,7 +3849,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>158</v>
@@ -3973,7 +3973,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
@@ -4033,27 +4033,27 @@
         <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="3">
         <v>150</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="K38" s="5">
         <v>0.27</v>
@@ -4110,7 +4110,7 @@
         <v>176</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>177</v>
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>94</v>
@@ -4488,10 +4488,10 @@
         <v>123</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>239</v>
@@ -4501,13 +4501,13 @@
         <v>152</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I46" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="K46" s="6">
         <v>2.4</v>
@@ -4547,13 +4547,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>211</v>
@@ -4563,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="K47" s="6">
         <v>1.41</v>
@@ -4691,10 +4691,10 @@
         <v>218</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12"/>
@@ -4702,13 +4702,13 @@
         <v>186</v>
       </c>
       <c r="H51" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="K51" s="6">
         <v>0.33</v>
@@ -4753,7 +4753,7 @@
         <v>220</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12"/>
@@ -4761,13 +4761,13 @@
         <v>186</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="K52" s="6">
         <v>0.16</v>

--- a/m50,m40,m60 Pnp/Rev 2.3/BOM-speeduino v0.4.3 compatible PCB for m50tu rev2.3.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.3/BOM-speeduino v0.4.3 compatible PCB for m50tu rev2.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53976472-07EC-42AE-9005-0419B7A1CD5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9975DA59-4A64-406D-AA76-D3F7C8404E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="735" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="30" windowWidth="27975" windowHeight="15570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -1216,10 +1216,10 @@
     </r>
   </si>
   <si>
-    <t>IC1,IC2,IC5</t>
-  </si>
-  <si>
     <t>C1,C3,C5,C7,C9,C13,C15,C21,C22,C29</t>
+  </si>
+  <si>
+    <t>IC2,IC3,IC5</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2001,8 @@
   </sheetPr>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2228,7 +2228,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>94</v>
